--- a/missionplanner_scenario/Change_of_waypoint_during_velocity.xlsx
+++ b/missionplanner_scenario/Change_of_waypoint_during_velocity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgns\Desktop\DBASEV\missionplanner_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED548A7-36D2-48E3-A026-0230D970B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287A4F90-9649-482C-8A41-6C92419DCAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E21FBF6-CBB8-47E9-B0FD-F92E71F501C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>시간(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348BAC6-FF49-4E8E-B1FF-15115F4480BD}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -538,7 +538,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -562,15 +562,15 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -586,15 +586,15 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -602,15 +602,15 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -626,23 +626,23 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -666,15 +666,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
@@ -698,15 +698,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -746,23 +746,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
@@ -786,23 +786,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>17</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>17</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
@@ -826,23 +826,23 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>19</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>19</v>
@@ -858,15 +858,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>20</v>
@@ -874,23 +874,23 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>9</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>9</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>9</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>21</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
@@ -941,15 +941,15 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>22</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>22</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>22</v>
@@ -973,15 +973,15 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>23</v>
@@ -989,15 +989,15 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>24</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>24</v>
@@ -1013,9 +1013,17 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <v>30</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
     </row>
